--- a/1. Diccionario de variables.xlsx
+++ b/1. Diccionario de variables.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2824dc675c0c08c7/Documentos/GitHub/Taller-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C886A85A-6507-4534-A36B-B7A06DD21478}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E498F8-6A09-4C01-9412-6DDC523171EA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{501F2CAF-E807-4180-9A7E-6CA0FE92FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
     <sheet name="Repartición" sheetId="4" r:id="rId2"/>
+    <sheet name="Informalidad" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Repartición!$A$1:$I$73</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="343">
   <si>
     <t>ID</t>
   </si>
@@ -912,21 +914,9 @@
     <t>6: Otra actividad</t>
   </si>
   <si>
-    <t>1: Obrero/empleado privado</t>
-  </si>
-  <si>
-    <t>2: Obrero/empleado gobierno</t>
-  </si>
-  <si>
     <t>4: Trabajador por cuenta propia</t>
   </si>
   <si>
-    <t>5: Patrón/empleador</t>
-  </si>
-  <si>
-    <t>8: Jornalero, etc.</t>
-  </si>
-  <si>
     <t>Escala: a (1 persona) a i (101+ personas).</t>
   </si>
   <si>
@@ -1035,7 +1025,52 @@
     <t>Uso cómo proxy de informalidad. Si no cotiza, informal</t>
   </si>
   <si>
-    <t>Valores vacíos son de personas ocupadas que no tienen primas o bonos (16.76%)</t>
+    <t>1: Obrero o empleado de empresa particular</t>
+  </si>
+  <si>
+    <t>2: Obrero o empleado del gobierno</t>
+  </si>
+  <si>
+    <t>3: Empleado doméstico</t>
+  </si>
+  <si>
+    <t>6: Trabajador familiar sin remuneración</t>
+  </si>
+  <si>
+    <t>7: Trabajador sin remuneración en empresas o negocios de otros hogares</t>
+  </si>
+  <si>
+    <t>8: Jornalero o peón</t>
+  </si>
+  <si>
+    <t>9: Otro</t>
+  </si>
+  <si>
+    <t>5: Patrón o empleador</t>
+  </si>
+  <si>
+    <t>70% de los missings son de personas mayores de 65 o menores de 18 años. El resto sí son raros (37%) Los vamos a llenar?</t>
+  </si>
+  <si>
+    <t>No sé cómo usarla jeje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usualmente personas que tienen 2 contratos wow :o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable dicotómica. Valores vacíos son de personas ocupadas que no tienen primas o bonos (16.76%). Se pone cómo ingreso laboral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable dicotómica. Valores vacíos son de personas ocupadas que no tienen primas o bonos (16.76%). Se pone cómo otros ingresos </t>
+  </si>
+  <si>
+    <t>Variable dicotómica. Valores vacíos son normales, de gente que no tiene segundo trabajo</t>
+  </si>
+  <si>
+    <t>Variable dicotómica. Valores vacíos son de personas ocupadas que no tienen primas o bonos (16.76%). Se pone cómo subsidio</t>
+  </si>
+  <si>
+    <t>Utilizar para aproximar a informalidad. (Jefe de hogar informal? )</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1082,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1116,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1119,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1149,6 +1190,10 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1165,6 +1210,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213059</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357656</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B9D8A1-0AB0-D6F6-9019-09FDE28E4DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="213059" y="162927"/>
+          <a:ext cx="12376702" cy="6687513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>94965</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>101734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7691C6-1709-A87D-5AD7-D83C655954B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7193882"/>
+          <a:ext cx="12327070" cy="6944694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1484,17 +1622,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A9B9EA-83AB-48A5-A242-07C488F07C6F}">
-  <dimension ref="B3:I149"/>
+  <dimension ref="B3:I153"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="G117" workbookViewId="1">
+      <selection activeCell="I138" sqref="H137:I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="2.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
@@ -2289,457 +2430,421 @@
         <v>117</v>
       </c>
       <c r="I59" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I60" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I61" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I62" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I63" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64">
-        <v>28</v>
-      </c>
-      <c r="D64" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" t="s">
-        <v>119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
-      <c r="H64" t="s">
-        <v>120</v>
-      </c>
       <c r="I64" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I65" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I66" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B67">
-        <v>29</v>
-      </c>
-      <c r="D67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68">
         <v>28</v>
       </c>
-      <c r="H67" t="s">
-        <v>123</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="D68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" t="s">
+        <v>120</v>
+      </c>
+      <c r="I68" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I68" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I70" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70">
-        <v>30</v>
-      </c>
-      <c r="D70" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
         <v>28</v>
       </c>
-      <c r="H70" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="H71" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I71" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I73" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73">
-        <v>31</v>
-      </c>
-      <c r="D73" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
         <v>28</v>
       </c>
-      <c r="H73" t="s">
-        <v>129</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="H74" t="s">
+        <v>126</v>
+      </c>
+      <c r="I74" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I74" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I76" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B76">
-        <v>32</v>
-      </c>
-      <c r="D76" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
         <v>28</v>
       </c>
-      <c r="H76" t="s">
-        <v>132</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="H77" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I77" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I79" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B79">
-        <v>33</v>
-      </c>
-      <c r="D79" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" t="s">
-        <v>134</v>
-      </c>
-      <c r="F79" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>32</v>
+      </c>
+      <c r="D80" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
         <v>28</v>
       </c>
-      <c r="H79" t="s">
-        <v>135</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="H80" t="s">
+        <v>132</v>
+      </c>
+      <c r="I80" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I80" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I82" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B82">
-        <v>34</v>
-      </c>
-      <c r="D82" t="s">
-        <v>136</v>
-      </c>
-      <c r="E82" t="s">
-        <v>137</v>
-      </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" t="s">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" t="s">
+        <v>134</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
         <v>28</v>
       </c>
-      <c r="H82" t="s">
-        <v>138</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="H83" t="s">
+        <v>135</v>
+      </c>
+      <c r="I83" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I83" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I85" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B85">
-        <v>35</v>
-      </c>
-      <c r="D85" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" t="s">
-        <v>140</v>
-      </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" t="s">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
         <v>28</v>
       </c>
-      <c r="H85" t="s">
-        <v>141</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="H86" t="s">
+        <v>138</v>
+      </c>
+      <c r="I86" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I86" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I88" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B88">
-        <v>36</v>
-      </c>
-      <c r="D88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>35</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" t="s">
+        <v>140</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
         <v>28</v>
       </c>
-      <c r="H88" t="s">
-        <v>144</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="H89" t="s">
+        <v>141</v>
+      </c>
+      <c r="I89" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I89" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I91" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B91">
-        <v>37</v>
-      </c>
-      <c r="D91" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s">
+        <v>142</v>
+      </c>
+      <c r="E92" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
         <v>28</v>
       </c>
-      <c r="H91" t="s">
-        <v>147</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="H92" t="s">
+        <v>144</v>
+      </c>
+      <c r="I92" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I92" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I93" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I94" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B94">
-        <v>38</v>
-      </c>
-      <c r="D94" t="s">
-        <v>148</v>
-      </c>
-      <c r="E94" t="s">
-        <v>149</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" t="s">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
         <v>28</v>
       </c>
-      <c r="H94" t="s">
-        <v>150</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="H95" t="s">
+        <v>147</v>
+      </c>
+      <c r="I95" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I95" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I97" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B97">
-        <v>39</v>
-      </c>
-      <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" t="s">
-        <v>152</v>
-      </c>
-      <c r="F97" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" t="s">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" t="s">
+        <v>149</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
         <v>28</v>
       </c>
-      <c r="H97" t="s">
-        <v>153</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="H98" t="s">
+        <v>150</v>
+      </c>
+      <c r="I98" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I98" t="s">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I99" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B99">
-        <v>40</v>
-      </c>
-      <c r="D99" t="s">
-        <v>154</v>
-      </c>
-      <c r="E99" t="s">
-        <v>155</v>
-      </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" t="s">
-        <v>28</v>
-      </c>
-      <c r="H99" t="s">
-        <v>156</v>
-      </c>
-      <c r="I99" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B101">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
@@ -2748,7 +2853,7 @@
         <v>28</v>
       </c>
       <c r="H101" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I101" t="s">
         <v>272</v>
@@ -2761,13 +2866,13 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B103">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E103" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -2776,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="H103" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I103" t="s">
         <v>272</v>
@@ -2789,13 +2894,13 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B105">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -2804,7 +2909,7 @@
         <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I105" t="s">
         <v>272</v>
@@ -2817,59 +2922,41 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B107">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G107" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H107" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I107" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B108">
-        <v>45</v>
-      </c>
-      <c r="D108" t="s">
-        <v>170</v>
-      </c>
-      <c r="E108" t="s">
-        <v>171</v>
-      </c>
-      <c r="F108" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
-      <c r="H108" t="s">
-        <v>172</v>
-      </c>
       <c r="I108" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B109">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D109" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E109" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
@@ -2878,7 +2965,7 @@
         <v>28</v>
       </c>
       <c r="H109" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I109" t="s">
         <v>272</v>
@@ -2890,19 +2977,37 @@
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>44</v>
+      </c>
+      <c r="D111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" t="s">
+        <v>167</v>
+      </c>
+      <c r="F111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
+        <v>108</v>
+      </c>
+      <c r="H111" t="s">
+        <v>168</v>
+      </c>
       <c r="I111" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B112">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
@@ -2911,72 +3016,54 @@
         <v>28</v>
       </c>
       <c r="H112" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I112" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" t="s">
+        <v>174</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" t="s">
+        <v>175</v>
+      </c>
+      <c r="I113" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I113" t="s">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I114" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B114">
-        <v>48</v>
-      </c>
-      <c r="D114" t="s">
-        <v>179</v>
-      </c>
-      <c r="E114" t="s">
-        <v>180</v>
-      </c>
-      <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>108</v>
-      </c>
-      <c r="H114" t="s">
-        <v>181</v>
-      </c>
-      <c r="I114" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B115">
-        <v>49</v>
-      </c>
-      <c r="D115" t="s">
-        <v>182</v>
-      </c>
-      <c r="E115" t="s">
-        <v>183</v>
-      </c>
-      <c r="F115" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" t="s">
-        <v>184</v>
-      </c>
       <c r="I115" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B116">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D116" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E116" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -2985,7 +3072,7 @@
         <v>28</v>
       </c>
       <c r="H116" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I116" t="s">
         <v>272</v>
@@ -2998,41 +3085,59 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B118">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D118" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E118" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
+        <v>108</v>
+      </c>
+      <c r="H118" t="s">
+        <v>181</v>
+      </c>
+      <c r="I118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>49</v>
+      </c>
+      <c r="D119" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" t="s">
+        <v>183</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
         <v>28</v>
       </c>
-      <c r="H118" t="s">
-        <v>191</v>
-      </c>
-      <c r="I118" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H119" t="s">
+        <v>184</v>
+      </c>
       <c r="I119" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B120">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D120" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E120" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -3041,7 +3146,7 @@
         <v>28</v>
       </c>
       <c r="H120" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I120" t="s">
         <v>272</v>
@@ -3054,13 +3159,13 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B122">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D122" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E122" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -3069,7 +3174,7 @@
         <v>28</v>
       </c>
       <c r="H122" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I122" t="s">
         <v>272</v>
@@ -3082,13 +3187,13 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B124">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D124" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E124" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
@@ -3097,7 +3202,7 @@
         <v>28</v>
       </c>
       <c r="H124" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I124" t="s">
         <v>272</v>
@@ -3110,13 +3215,13 @@
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B126">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D126" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E126" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -3125,26 +3230,26 @@
         <v>28</v>
       </c>
       <c r="H126" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I126" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I127" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B128">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D128" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E128" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -3153,77 +3258,77 @@
         <v>28</v>
       </c>
       <c r="H128" t="s">
+        <v>200</v>
+      </c>
+      <c r="I128" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I129" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>55</v>
+      </c>
+      <c r="D130" t="s">
+        <v>201</v>
+      </c>
+      <c r="E130" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" t="s">
+        <v>203</v>
+      </c>
+      <c r="I130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I131" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>56</v>
+      </c>
+      <c r="D132" t="s">
+        <v>204</v>
+      </c>
+      <c r="E132" t="s">
+        <v>205</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" t="s">
         <v>206</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I132" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B129">
-        <v>57</v>
-      </c>
-      <c r="D129" t="s">
-        <v>207</v>
-      </c>
-      <c r="E129" t="s">
-        <v>208</v>
-      </c>
-      <c r="F129" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" t="s">
-        <v>28</v>
-      </c>
-      <c r="H129" t="s">
-        <v>209</v>
-      </c>
-      <c r="I129" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I130" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B131">
-        <v>58</v>
-      </c>
-      <c r="D131" t="s">
-        <v>210</v>
-      </c>
-      <c r="E131" t="s">
-        <v>211</v>
-      </c>
-      <c r="F131" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" t="s">
-        <v>28</v>
-      </c>
-      <c r="H131" t="s">
-        <v>212</v>
-      </c>
-      <c r="I131" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I132" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B133">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D133" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E133" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
@@ -3232,7 +3337,7 @@
         <v>28</v>
       </c>
       <c r="H133" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I133" t="s">
         <v>272</v>
@@ -3245,59 +3350,41 @@
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B135">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D135" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E135" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H135" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B136">
-        <v>61</v>
-      </c>
-      <c r="D136" t="s">
-        <v>219</v>
-      </c>
-      <c r="E136" t="s">
-        <v>220</v>
-      </c>
-      <c r="F136" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" t="s">
-        <v>108</v>
-      </c>
-      <c r="H136" t="s">
-        <v>221</v>
-      </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B137">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D137" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E137" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F137" t="s">
         <v>9</v>
@@ -3306,7 +3393,7 @@
         <v>28</v>
       </c>
       <c r="H137" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="I137" t="s">
         <v>272</v>
@@ -3319,13 +3406,13 @@
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B139">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D139" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E139" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F139" t="s">
         <v>32</v>
@@ -3334,7 +3421,7 @@
         <v>108</v>
       </c>
       <c r="H139" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I139" t="s">
         <v>39</v>
@@ -3342,13 +3429,13 @@
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B140">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D140" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E140" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F140" t="s">
         <v>32</v>
@@ -3357,7 +3444,7 @@
         <v>108</v>
       </c>
       <c r="H140" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I140" t="s">
         <v>39</v>
@@ -3365,59 +3452,41 @@
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B141">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D141" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E141" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H141" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I141" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B142">
-        <v>66</v>
-      </c>
-      <c r="D142" t="s">
-        <v>234</v>
-      </c>
-      <c r="E142" t="s">
-        <v>235</v>
-      </c>
-      <c r="F142" t="s">
-        <v>32</v>
-      </c>
-      <c r="G142" t="s">
-        <v>108</v>
-      </c>
-      <c r="H142" t="s">
-        <v>236</v>
-      </c>
       <c r="I142" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B143">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D143" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E143" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F143" t="s">
         <v>32</v>
@@ -3426,7 +3495,7 @@
         <v>108</v>
       </c>
       <c r="H143" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I143" t="s">
         <v>39</v>
@@ -3434,13 +3503,13 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B144">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D144" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E144" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F144" t="s">
         <v>32</v>
@@ -3449,7 +3518,7 @@
         <v>108</v>
       </c>
       <c r="H144" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I144" t="s">
         <v>39</v>
@@ -3457,87 +3526,105 @@
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B145">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D145" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E145" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F145" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="H145" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I145" t="s">
-        <v>272</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>66</v>
+      </c>
+      <c r="D146" t="s">
+        <v>234</v>
+      </c>
+      <c r="E146" t="s">
+        <v>235</v>
+      </c>
+      <c r="F146" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" t="s">
+        <v>108</v>
+      </c>
+      <c r="H146" t="s">
+        <v>236</v>
+      </c>
       <c r="I146" t="s">
-        <v>299</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B147">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D147" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E147" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F147" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="H147" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="I147" t="s">
-        <v>272</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B148">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D148" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E148" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F148" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="H148" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I148" t="s">
-        <v>272</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B149">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D149" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E149" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F149" t="s">
         <v>9</v>
@@ -3546,9 +3633,83 @@
         <v>28</v>
       </c>
       <c r="H149" t="s">
+        <v>245</v>
+      </c>
+      <c r="I149" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>70</v>
+      </c>
+      <c r="D151" t="s">
+        <v>246</v>
+      </c>
+      <c r="E151" t="s">
+        <v>247</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" t="s">
+        <v>248</v>
+      </c>
+      <c r="I151" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>71</v>
+      </c>
+      <c r="D152" t="s">
+        <v>249</v>
+      </c>
+      <c r="E152" t="s">
+        <v>250</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" t="s">
+        <v>28</v>
+      </c>
+      <c r="H152" t="s">
+        <v>251</v>
+      </c>
+      <c r="I152" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>72</v>
+      </c>
+      <c r="D153" t="s">
+        <v>252</v>
+      </c>
+      <c r="E153" t="s">
+        <v>253</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" t="s">
         <v>254</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I153" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3561,13 +3722,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5973FD41-B289-41A1-96C9-1FB75F7B4310}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
+    <sheetView topLeftCell="C1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" style="3"/>
     <col min="5" max="5" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
@@ -3587,25 +3752,25 @@
         <v>5</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3631,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I2" s="7">
         <v>2</v>
@@ -3758,7 +3923,7 @@
         <v>524122</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G7" s="7">
         <v>98</v>
@@ -3787,7 +3952,7 @@
         <v>200232</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7">
         <v>98</v>
@@ -3816,7 +3981,7 @@
         <v>342877</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G9" s="7">
         <v>20</v>
@@ -3955,7 +4120,7 @@
         <v>66.61</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -3968,8 +4133,8 @@
       <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="7" t="e">
-        <v>#N/A</v>
+      <c r="E15" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -3995,7 +4160,7 @@
         <v>66.78</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -4119,7 +4284,7 @@
         <v>95450</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -4131,7 +4296,7 @@
         <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -4151,7 +4316,7 @@
         <v>125723</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
@@ -4163,7 +4328,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -4183,7 +4348,7 @@
         <v>22758</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
@@ -4212,7 +4377,7 @@
         <v>95450</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -4224,7 +4389,7 @@
         <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -4244,7 +4409,7 @@
         <v>95450</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -4256,7 +4421,7 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -4276,7 +4441,7 @@
         <v>295034</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -4288,7 +4453,7 @@
         <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -4308,7 +4473,7 @@
         <v>295034</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -4320,7 +4485,7 @@
         <v>948</v>
       </c>
       <c r="J27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -4340,7 +4505,7 @@
         <v>295034</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
@@ -4352,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="J28" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -4372,7 +4537,7 @@
         <v>426983</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
@@ -4384,7 +4549,7 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -4404,7 +4569,7 @@
         <v>426983</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -4414,6 +4579,9 @@
       </c>
       <c r="I30" s="7">
         <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -4433,7 +4601,7 @@
         <v>426983</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
@@ -4443,6 +4611,9 @@
       </c>
       <c r="I31" s="7">
         <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -4462,7 +4633,7 @@
         <v>426983</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G32" s="7">
         <v>1</v>
@@ -4472,6 +4643,9 @@
       </c>
       <c r="I32" s="7">
         <v>9</v>
+      </c>
+      <c r="J32" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -4491,7 +4665,7 @@
         <v>426983</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -4501,6 +4675,9 @@
       </c>
       <c r="I33" s="7">
         <v>9</v>
+      </c>
+      <c r="J33" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -4520,7 +4697,7 @@
         <v>426983</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
@@ -4530,6 +4707,9 @@
       </c>
       <c r="I34" s="7">
         <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -4549,7 +4729,7 @@
         <v>426983</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G35" s="7">
         <v>1</v>
@@ -4559,6 +4739,9 @@
       </c>
       <c r="I35" s="7">
         <v>9</v>
+      </c>
+      <c r="J35" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -4578,7 +4761,7 @@
         <v>426983</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
@@ -4588,6 +4771,9 @@
       </c>
       <c r="I36" s="7">
         <v>9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -4607,7 +4793,7 @@
         <v>426983</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -4617,6 +4803,9 @@
       </c>
       <c r="I37" s="7">
         <v>9</v>
+      </c>
+      <c r="J37" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -4636,7 +4825,7 @@
         <v>426983</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G38" s="7">
         <v>1</v>
@@ -4646,6 +4835,9 @@
       </c>
       <c r="I38" s="7">
         <v>9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -4665,7 +4857,7 @@
         <v>426983</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G39" s="7">
         <v>1</v>
@@ -4675,6 +4867,9 @@
       </c>
       <c r="I39" s="7">
         <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -4687,14 +4882,14 @@
       <c r="C40" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="13">
         <v>2</v>
       </c>
       <c r="E40" s="7">
         <v>426983</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
@@ -4706,7 +4901,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -4719,14 +4914,14 @@
       <c r="C41" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="13">
         <v>2</v>
       </c>
       <c r="E41" s="7">
         <v>426983</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -4738,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -4751,14 +4946,14 @@
       <c r="C42" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="13">
         <v>2</v>
       </c>
       <c r="E42" s="7">
         <v>426983</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G42" s="7">
         <v>1</v>
@@ -4770,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -4783,14 +4978,14 @@
       <c r="C43" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="13">
         <v>2</v>
       </c>
       <c r="E43" s="7">
         <v>426983</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G43" s="7">
         <v>1</v>
@@ -4802,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -4815,14 +5010,14 @@
       <c r="C44" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="13">
         <v>2</v>
       </c>
       <c r="E44" s="7">
         <v>426983</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
@@ -4832,6 +5027,9 @@
       </c>
       <c r="I44" s="7">
         <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -4844,14 +5042,14 @@
       <c r="C45" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="13">
         <v>2</v>
       </c>
       <c r="E45" s="7">
         <v>295034</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -4861,6 +5059,9 @@
       </c>
       <c r="I45" s="7">
         <v>130</v>
+      </c>
+      <c r="J45" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -4873,14 +5074,14 @@
       <c r="C46" t="s">
         <v>171</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="13">
         <v>2</v>
       </c>
       <c r="E46" s="7">
         <v>295034</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -4890,6 +5091,9 @@
       </c>
       <c r="I46" s="7">
         <v>9</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -4902,14 +5106,14 @@
       <c r="C47" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="13">
         <v>2</v>
       </c>
       <c r="E47" s="7">
         <v>296058</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G47" s="7">
         <v>1</v>
@@ -4921,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -4941,7 +5145,7 @@
         <v>295034</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G48" s="7">
         <v>1</v>
@@ -4952,8 +5156,11 @@
       <c r="I48" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4970,7 +5177,7 @@
         <v>530864</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -4981,8 +5188,11 @@
       <c r="I49" s="7">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4999,7 +5209,7 @@
         <v>530864</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G50" s="7">
         <v>1</v>
@@ -5010,8 +5220,11 @@
       <c r="I50" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5028,7 +5241,7 @@
         <v>295034</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G51" s="7">
         <v>1</v>
@@ -5040,7 +5253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5069,7 +5282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5098,7 +5311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5115,7 +5328,7 @@
         <v>483728</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G54" s="7">
         <v>1</v>
@@ -5127,7 +5340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5144,7 +5357,7 @@
         <v>483728</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G55" s="7">
         <v>1</v>
@@ -5156,7 +5369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5173,7 +5386,7 @@
         <v>513037</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G56" s="7">
         <v>1</v>
@@ -5185,7 +5398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5202,7 +5415,7 @@
         <v>516467</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
@@ -5214,24 +5427,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="13">
         <v>2</v>
       </c>
       <c r="E58" s="7">
         <v>516467</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G58" s="7">
         <v>1</v>
@@ -5242,25 +5455,28 @@
       <c r="I58" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>210</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="13">
         <v>2</v>
       </c>
       <c r="E59" s="7">
         <v>373597</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G59" s="7">
         <v>1</v>
@@ -5271,25 +5487,28 @@
       <c r="I59" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="13">
         <v>2</v>
       </c>
       <c r="E60" s="7">
         <v>95450</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G60" s="7">
         <v>1</v>
@@ -5300,25 +5519,28 @@
       <c r="I60" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="13">
         <v>2</v>
       </c>
       <c r="E61" s="7">
         <v>502052</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
@@ -5329,25 +5551,28 @@
       <c r="I61" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="13">
         <v>2</v>
       </c>
       <c r="E62" s="7">
         <v>502052</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G62" s="7">
         <v>1</v>
@@ -5358,25 +5583,28 @@
       <c r="I62" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="13">
         <v>2</v>
       </c>
       <c r="E63" s="7">
         <v>95450</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G63" s="7">
         <v>1</v>
@@ -5387,8 +5615,11 @@
       <c r="I63" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5405,7 +5636,7 @@
         <v>449208</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G64" s="7">
         <v>1</v>
@@ -5416,8 +5647,11 @@
       <c r="I64" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5434,7 +5668,7 @@
         <v>449208</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
@@ -5445,8 +5679,11 @@
       <c r="I65" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5463,7 +5700,7 @@
         <v>449208</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G66" s="7">
         <v>1</v>
@@ -5474,8 +5711,11 @@
       <c r="I66" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5492,7 +5732,7 @@
         <v>449208</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G67" s="7">
         <v>1</v>
@@ -5503,8 +5743,11 @@
       <c r="I67" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5521,7 +5764,7 @@
         <v>449208</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G68" s="7">
         <v>1</v>
@@ -5532,8 +5775,11 @@
       <c r="I68" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5550,7 +5796,7 @@
         <v>449208</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
@@ -5561,8 +5807,11 @@
       <c r="I69" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5579,7 +5828,7 @@
         <v>95450</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G70" s="7">
         <v>1</v>
@@ -5591,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5608,7 +5857,7 @@
         <v>295034</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G71" s="7">
         <v>1</v>
@@ -5620,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5637,7 +5886,7 @@
         <v>513037</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G72" s="7">
         <v>1</v>
@@ -5649,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5666,7 +5915,7 @@
         <v>373597</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -5680,5 +5929,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A9C457-954F-44FB-B195-3E24EEF5D721}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/1. Diccionario de variables.xlsx
+++ b/1. Diccionario de variables.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2824dc675c0c08c7/Documentos/GitHub/Taller-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E498F8-6A09-4C01-9412-6DDC523171EA}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2C4088-D117-4C41-93C3-5850155C473B}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{501F2CAF-E807-4180-9A7E-6CA0FE92FD61}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
+    <workbookView xWindow="41115" yWindow="5160" windowWidth="14400" windowHeight="7275" xr2:uid="{501F2CAF-E807-4180-9A7E-6CA0FE92FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -3722,11 +3722,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5973FD41-B289-41A1-96C9-1FB75F7B4310}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
     <sheetView topLeftCell="C1" workbookViewId="1"/>
   </sheetViews>
@@ -3740,7 +3740,7 @@
     <col min="7" max="7" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="111.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">

--- a/1. Diccionario de variables.xlsx
+++ b/1. Diccionario de variables.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2824dc675c0c08c7/Documentos/GitHub/Taller-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2C4088-D117-4C41-93C3-5850155C473B}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B9EA20-D2ED-41F3-B079-0B89E2169148}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
-    <workbookView xWindow="41115" yWindow="5160" windowWidth="14400" windowHeight="7275" xr2:uid="{501F2CAF-E807-4180-9A7E-6CA0FE92FD61}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -1622,2094 +1621,2095 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A9B9EA-83AB-48A5-A242-07C488F07C6F}">
-  <dimension ref="B3:I153"/>
+  <dimension ref="A3:H153"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H40" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="G117" workbookViewId="1">
-      <selection activeCell="I138" sqref="H137:I138"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="76.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>24</v>
       </c>
-      <c r="I8" t="s">
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H62" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H64" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H65" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H67" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>123</v>
+      </c>
+      <c r="H71" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H73" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>126</v>
+      </c>
+      <c r="H74" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>31</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>32</v>
       </c>
-      <c r="G15" t="s">
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H82" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>33</v>
       </c>
-      <c r="H15" t="s">
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>135</v>
+      </c>
+      <c r="H83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>34</v>
       </c>
-      <c r="I15" t="s">
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H88" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s">
+        <v>141</v>
+      </c>
+      <c r="H89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C92" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>144</v>
+      </c>
+      <c r="H92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H93" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s">
+        <v>147</v>
+      </c>
+      <c r="H95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>38</v>
+      </c>
+      <c r="C98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>150</v>
+      </c>
+      <c r="H98" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H99" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s">
+        <v>153</v>
+      </c>
+      <c r="H101" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H102" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>40</v>
+      </c>
+      <c r="C103" t="s">
+        <v>154</v>
+      </c>
+      <c r="D103" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s">
+        <v>156</v>
+      </c>
+      <c r="H103" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H104" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>41</v>
+      </c>
+      <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s">
+        <v>159</v>
+      </c>
+      <c r="H105" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H106" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>42</v>
+      </c>
+      <c r="C107" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" t="s">
+        <v>161</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s">
+        <v>162</v>
+      </c>
+      <c r="H107" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H108" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>43</v>
+      </c>
+      <c r="C109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>165</v>
+      </c>
+      <c r="H109" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H110" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" t="s">
         <v>32</v>
       </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="F111" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" t="s">
+        <v>168</v>
+      </c>
+      <c r="H111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>45</v>
+      </c>
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s">
+        <v>172</v>
+      </c>
+      <c r="H112" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>46</v>
+      </c>
+      <c r="C113" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s">
+        <v>175</v>
+      </c>
+      <c r="H113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H114" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H115" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s">
+        <v>178</v>
+      </c>
+      <c r="H116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" t="s">
+        <v>108</v>
+      </c>
+      <c r="G118" t="s">
+        <v>181</v>
+      </c>
+      <c r="H118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>49</v>
+      </c>
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119" t="s">
+        <v>183</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s">
+        <v>184</v>
+      </c>
+      <c r="H119" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>50</v>
+      </c>
+      <c r="C120" t="s">
+        <v>186</v>
+      </c>
+      <c r="D120" t="s">
+        <v>187</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s">
+        <v>188</v>
+      </c>
+      <c r="H120" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H121" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>51</v>
+      </c>
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
+        <v>191</v>
+      </c>
+      <c r="H122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H123" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>52</v>
+      </c>
+      <c r="C124" t="s">
+        <v>192</v>
+      </c>
+      <c r="D124" t="s">
+        <v>193</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s">
+        <v>194</v>
+      </c>
+      <c r="H124" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H125" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>53</v>
+      </c>
+      <c r="C126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>197</v>
+      </c>
+      <c r="H126" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H127" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>54</v>
+      </c>
+      <c r="C128" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" t="s">
+        <v>199</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s">
+        <v>200</v>
+      </c>
+      <c r="H128" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H129" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>55</v>
+      </c>
+      <c r="C130" t="s">
+        <v>201</v>
+      </c>
+      <c r="D130" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s">
+        <v>203</v>
+      </c>
+      <c r="H130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H131" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>56</v>
+      </c>
+      <c r="C132" t="s">
+        <v>204</v>
+      </c>
+      <c r="D132" t="s">
+        <v>205</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>206</v>
+      </c>
+      <c r="H132" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>57</v>
+      </c>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" t="s">
+        <v>208</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>209</v>
+      </c>
+      <c r="H133" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H134" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>58</v>
+      </c>
+      <c r="C135" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" t="s">
+        <v>211</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s">
+        <v>212</v>
+      </c>
+      <c r="H135" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H136" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>59</v>
+      </c>
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137" t="s">
+        <v>214</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>215</v>
+      </c>
+      <c r="H137" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H138" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>60</v>
+      </c>
+      <c r="C139" t="s">
+        <v>216</v>
+      </c>
+      <c r="D139" t="s">
+        <v>217</v>
+      </c>
+      <c r="E139" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" t="s">
+        <v>108</v>
+      </c>
+      <c r="G139" t="s">
+        <v>218</v>
+      </c>
+      <c r="H139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>61</v>
+      </c>
+      <c r="C140" t="s">
+        <v>219</v>
+      </c>
+      <c r="D140" t="s">
+        <v>220</v>
+      </c>
+      <c r="E140" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F140" t="s">
+        <v>108</v>
+      </c>
+      <c r="G140" t="s">
+        <v>221</v>
+      </c>
+      <c r="H140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>62</v>
+      </c>
+      <c r="C141" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141" t="s">
+        <v>223</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>28</v>
+      </c>
+      <c r="G141" t="s">
+        <v>224</v>
+      </c>
+      <c r="H141" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>63</v>
+      </c>
+      <c r="C143" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" t="s">
+        <v>226</v>
+      </c>
+      <c r="E143" t="s">
         <v>32</v>
       </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="F143" t="s">
+        <v>108</v>
+      </c>
+      <c r="G143" t="s">
+        <v>227</v>
+      </c>
+      <c r="H143" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>64</v>
+      </c>
+      <c r="C144" t="s">
+        <v>228</v>
+      </c>
+      <c r="D144" t="s">
+        <v>229</v>
+      </c>
+      <c r="E144" t="s">
         <v>32</v>
       </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F144" t="s">
+        <v>108</v>
+      </c>
+      <c r="G144" t="s">
+        <v>230</v>
+      </c>
+      <c r="H144" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>65</v>
+      </c>
+      <c r="C145" t="s">
+        <v>231</v>
+      </c>
+      <c r="D145" t="s">
+        <v>232</v>
+      </c>
+      <c r="E145" t="s">
         <v>32</v>
       </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F145" t="s">
+        <v>108</v>
+      </c>
+      <c r="G145" t="s">
+        <v>233</v>
+      </c>
+      <c r="H145" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>66</v>
+      </c>
+      <c r="C146" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" t="s">
+        <v>235</v>
+      </c>
+      <c r="E146" t="s">
         <v>32</v>
       </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F146" t="s">
+        <v>108</v>
+      </c>
+      <c r="G146" t="s">
+        <v>236</v>
+      </c>
+      <c r="H146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>67</v>
+      </c>
+      <c r="C147" t="s">
+        <v>237</v>
+      </c>
+      <c r="D147" t="s">
+        <v>238</v>
+      </c>
+      <c r="E147" t="s">
         <v>32</v>
       </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F147" t="s">
+        <v>108</v>
+      </c>
+      <c r="G147" t="s">
+        <v>239</v>
+      </c>
+      <c r="H147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>68</v>
       </c>
-      <c r="I23" t="s">
+      <c r="C148" t="s">
+        <v>240</v>
+      </c>
+      <c r="D148" t="s">
+        <v>241</v>
+      </c>
+      <c r="E148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" t="s">
+        <v>108</v>
+      </c>
+      <c r="G148" t="s">
+        <v>242</v>
+      </c>
+      <c r="H148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C149" t="s">
+        <v>243</v>
+      </c>
+      <c r="D149" t="s">
+        <v>244</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>28</v>
+      </c>
+      <c r="G149" t="s">
+        <v>245</v>
+      </c>
+      <c r="H149" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>70</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C151" t="s">
+        <v>246</v>
+      </c>
+      <c r="D151" t="s">
+        <v>247</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" t="s">
+        <v>248</v>
+      </c>
+      <c r="H151" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>71</v>
       </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="C152" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" t="s">
+        <v>250</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" t="s">
+        <v>251</v>
+      </c>
+      <c r="H152" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>72</v>
       </c>
-      <c r="H24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="C153" t="s">
+        <v>252</v>
+      </c>
+      <c r="D153" t="s">
+        <v>253</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
         <v>28</v>
       </c>
-      <c r="H26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I30" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I40" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I41" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I42" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B43">
-        <v>22</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I44" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I45" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I47" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I48" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50">
-        <v>23</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51">
-        <v>24</v>
-      </c>
-      <c r="D51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I52" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I53" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I54" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I55" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I56" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57">
-        <v>25</v>
-      </c>
-      <c r="D57" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" t="s">
-        <v>108</v>
-      </c>
-      <c r="H57" t="s">
-        <v>109</v>
-      </c>
-      <c r="I57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58">
-        <v>26</v>
-      </c>
-      <c r="D58" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>108</v>
-      </c>
-      <c r="H58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59">
-        <v>27</v>
-      </c>
-      <c r="D59" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s">
-        <v>117</v>
-      </c>
-      <c r="I59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I60" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I61" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I62" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I63" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I64" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I66" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I67" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B68">
-        <v>28</v>
-      </c>
-      <c r="D68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" t="s">
-        <v>120</v>
-      </c>
-      <c r="I68" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I69" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I70" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71">
-        <v>29</v>
-      </c>
-      <c r="D71" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s">
-        <v>123</v>
-      </c>
-      <c r="I71" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I72" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I73" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B74">
-        <v>30</v>
-      </c>
-      <c r="D74" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" t="s">
-        <v>126</v>
-      </c>
-      <c r="I74" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I75" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B77">
-        <v>31</v>
-      </c>
-      <c r="D77" t="s">
-        <v>127</v>
-      </c>
-      <c r="E77" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
-      <c r="H77" t="s">
-        <v>129</v>
-      </c>
-      <c r="I77" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I78" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I79" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B80">
-        <v>32</v>
-      </c>
-      <c r="D80" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" t="s">
-        <v>131</v>
-      </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s">
-        <v>132</v>
-      </c>
-      <c r="I80" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I81" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I82" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B83">
-        <v>33</v>
-      </c>
-      <c r="D83" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" t="s">
-        <v>134</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" t="s">
-        <v>135</v>
-      </c>
-      <c r="I83" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I84" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I85" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B86">
-        <v>34</v>
-      </c>
-      <c r="D86" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" t="s">
-        <v>138</v>
-      </c>
-      <c r="I86" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I87" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I88" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B89">
-        <v>35</v>
-      </c>
-      <c r="D89" t="s">
-        <v>139</v>
-      </c>
-      <c r="E89" t="s">
-        <v>140</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
-      <c r="H89" t="s">
-        <v>141</v>
-      </c>
-      <c r="I89" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I90" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I91" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B92">
-        <v>36</v>
-      </c>
-      <c r="D92" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" t="s">
-        <v>143</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s">
-        <v>144</v>
-      </c>
-      <c r="I92" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I93" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I94" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B95">
-        <v>37</v>
-      </c>
-      <c r="D95" t="s">
-        <v>145</v>
-      </c>
-      <c r="E95" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" t="s">
-        <v>147</v>
-      </c>
-      <c r="I95" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I96" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I97" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B98">
-        <v>38</v>
-      </c>
-      <c r="D98" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" t="s">
-        <v>149</v>
-      </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" t="s">
-        <v>150</v>
-      </c>
-      <c r="I98" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I99" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I100" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B101">
-        <v>39</v>
-      </c>
-      <c r="D101" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" t="s">
-        <v>152</v>
-      </c>
-      <c r="F101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" t="s">
-        <v>153</v>
-      </c>
-      <c r="I101" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I102" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B103">
-        <v>40</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" t="s">
-        <v>155</v>
-      </c>
-      <c r="F103" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" t="s">
-        <v>156</v>
-      </c>
-      <c r="I103" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I104" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B105">
-        <v>41</v>
-      </c>
-      <c r="D105" t="s">
-        <v>157</v>
-      </c>
-      <c r="E105" t="s">
-        <v>158</v>
-      </c>
-      <c r="F105" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s">
-        <v>159</v>
-      </c>
-      <c r="I105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I106" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B107">
-        <v>42</v>
-      </c>
-      <c r="D107" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" t="s">
-        <v>161</v>
-      </c>
-      <c r="F107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
-      <c r="H107" t="s">
-        <v>162</v>
-      </c>
-      <c r="I107" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I108" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B109">
-        <v>43</v>
-      </c>
-      <c r="D109" t="s">
-        <v>163</v>
-      </c>
-      <c r="E109" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
-      <c r="H109" t="s">
-        <v>165</v>
-      </c>
-      <c r="I109" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I110" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B111">
-        <v>44</v>
-      </c>
-      <c r="D111" t="s">
-        <v>166</v>
-      </c>
-      <c r="E111" t="s">
-        <v>167</v>
-      </c>
-      <c r="F111" t="s">
-        <v>32</v>
-      </c>
-      <c r="G111" t="s">
-        <v>108</v>
-      </c>
-      <c r="H111" t="s">
-        <v>168</v>
-      </c>
-      <c r="I111" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B112">
-        <v>45</v>
-      </c>
-      <c r="D112" t="s">
-        <v>170</v>
-      </c>
-      <c r="E112" t="s">
-        <v>171</v>
-      </c>
-      <c r="F112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
-      <c r="H112" t="s">
-        <v>172</v>
-      </c>
-      <c r="I112" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B113">
-        <v>46</v>
-      </c>
-      <c r="D113" t="s">
-        <v>173</v>
-      </c>
-      <c r="E113" t="s">
-        <v>174</v>
-      </c>
-      <c r="F113" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" t="s">
-        <v>28</v>
-      </c>
-      <c r="H113" t="s">
-        <v>175</v>
-      </c>
-      <c r="I113" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I114" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I115" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B116">
-        <v>47</v>
-      </c>
-      <c r="D116" t="s">
-        <v>176</v>
-      </c>
-      <c r="E116" t="s">
-        <v>177</v>
-      </c>
-      <c r="F116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" t="s">
-        <v>178</v>
-      </c>
-      <c r="I116" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I117" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B118">
-        <v>48</v>
-      </c>
-      <c r="D118" t="s">
-        <v>179</v>
-      </c>
-      <c r="E118" t="s">
-        <v>180</v>
-      </c>
-      <c r="F118" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118" t="s">
-        <v>108</v>
-      </c>
-      <c r="H118" t="s">
-        <v>181</v>
-      </c>
-      <c r="I118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B119">
-        <v>49</v>
-      </c>
-      <c r="D119" t="s">
-        <v>182</v>
-      </c>
-      <c r="E119" t="s">
-        <v>183</v>
-      </c>
-      <c r="F119" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" t="s">
-        <v>184</v>
-      </c>
-      <c r="I119" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B120">
-        <v>50</v>
-      </c>
-      <c r="D120" t="s">
-        <v>186</v>
-      </c>
-      <c r="E120" t="s">
-        <v>187</v>
-      </c>
-      <c r="F120" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" t="s">
-        <v>188</v>
-      </c>
-      <c r="I120" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I121" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B122">
-        <v>51</v>
-      </c>
-      <c r="D122" t="s">
-        <v>189</v>
-      </c>
-      <c r="E122" t="s">
-        <v>190</v>
-      </c>
-      <c r="F122" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s">
-        <v>191</v>
-      </c>
-      <c r="I122" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I123" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B124">
-        <v>52</v>
-      </c>
-      <c r="D124" t="s">
-        <v>192</v>
-      </c>
-      <c r="E124" t="s">
-        <v>193</v>
-      </c>
-      <c r="F124" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s">
-        <v>194</v>
-      </c>
-      <c r="I124" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I125" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B126">
-        <v>53</v>
-      </c>
-      <c r="D126" t="s">
-        <v>195</v>
-      </c>
-      <c r="E126" t="s">
-        <v>196</v>
-      </c>
-      <c r="F126" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" t="s">
-        <v>197</v>
-      </c>
-      <c r="I126" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I127" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B128">
-        <v>54</v>
-      </c>
-      <c r="D128" t="s">
-        <v>198</v>
-      </c>
-      <c r="E128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F128" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" t="s">
-        <v>28</v>
-      </c>
-      <c r="H128" t="s">
-        <v>200</v>
-      </c>
-      <c r="I128" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I129" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B130">
-        <v>55</v>
-      </c>
-      <c r="D130" t="s">
-        <v>201</v>
-      </c>
-      <c r="E130" t="s">
-        <v>202</v>
-      </c>
-      <c r="F130" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" t="s">
-        <v>28</v>
-      </c>
-      <c r="H130" t="s">
-        <v>203</v>
-      </c>
-      <c r="I130" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I131" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B132">
-        <v>56</v>
-      </c>
-      <c r="D132" t="s">
-        <v>204</v>
-      </c>
-      <c r="E132" t="s">
-        <v>205</v>
-      </c>
-      <c r="F132" t="s">
-        <v>9</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
-      <c r="H132" t="s">
-        <v>206</v>
-      </c>
-      <c r="I132" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B133">
-        <v>57</v>
-      </c>
-      <c r="D133" t="s">
-        <v>207</v>
-      </c>
-      <c r="E133" t="s">
-        <v>208</v>
-      </c>
-      <c r="F133" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133" t="s">
-        <v>28</v>
-      </c>
-      <c r="H133" t="s">
-        <v>209</v>
-      </c>
-      <c r="I133" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I134" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B135">
-        <v>58</v>
-      </c>
-      <c r="D135" t="s">
-        <v>210</v>
-      </c>
-      <c r="E135" t="s">
-        <v>211</v>
-      </c>
-      <c r="F135" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H135" t="s">
-        <v>212</v>
-      </c>
-      <c r="I135" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I136" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B137">
-        <v>59</v>
-      </c>
-      <c r="D137" t="s">
-        <v>213</v>
-      </c>
-      <c r="E137" t="s">
-        <v>214</v>
-      </c>
-      <c r="F137" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" t="s">
-        <v>28</v>
-      </c>
-      <c r="H137" t="s">
-        <v>215</v>
-      </c>
-      <c r="I137" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I138" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B139">
-        <v>60</v>
-      </c>
-      <c r="D139" t="s">
-        <v>216</v>
-      </c>
-      <c r="E139" t="s">
-        <v>217</v>
-      </c>
-      <c r="F139" t="s">
-        <v>32</v>
-      </c>
-      <c r="G139" t="s">
-        <v>108</v>
-      </c>
-      <c r="H139" t="s">
-        <v>218</v>
-      </c>
-      <c r="I139" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B140">
-        <v>61</v>
-      </c>
-      <c r="D140" t="s">
-        <v>219</v>
-      </c>
-      <c r="E140" t="s">
-        <v>220</v>
-      </c>
-      <c r="F140" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" t="s">
-        <v>108</v>
-      </c>
-      <c r="H140" t="s">
-        <v>221</v>
-      </c>
-      <c r="I140" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B141">
-        <v>62</v>
-      </c>
-      <c r="D141" t="s">
-        <v>222</v>
-      </c>
-      <c r="E141" t="s">
-        <v>223</v>
-      </c>
-      <c r="F141" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" t="s">
-        <v>28</v>
-      </c>
-      <c r="H141" t="s">
-        <v>224</v>
-      </c>
-      <c r="I141" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I142" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B143">
-        <v>63</v>
-      </c>
-      <c r="D143" t="s">
-        <v>225</v>
-      </c>
-      <c r="E143" t="s">
-        <v>226</v>
-      </c>
-      <c r="F143" t="s">
-        <v>32</v>
-      </c>
-      <c r="G143" t="s">
-        <v>108</v>
-      </c>
-      <c r="H143" t="s">
-        <v>227</v>
-      </c>
-      <c r="I143" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B144">
-        <v>64</v>
-      </c>
-      <c r="D144" t="s">
-        <v>228</v>
-      </c>
-      <c r="E144" t="s">
-        <v>229</v>
-      </c>
-      <c r="F144" t="s">
-        <v>32</v>
-      </c>
-      <c r="G144" t="s">
-        <v>108</v>
-      </c>
-      <c r="H144" t="s">
-        <v>230</v>
-      </c>
-      <c r="I144" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B145">
-        <v>65</v>
-      </c>
-      <c r="D145" t="s">
-        <v>231</v>
-      </c>
-      <c r="E145" t="s">
-        <v>232</v>
-      </c>
-      <c r="F145" t="s">
-        <v>32</v>
-      </c>
-      <c r="G145" t="s">
-        <v>108</v>
-      </c>
-      <c r="H145" t="s">
-        <v>233</v>
-      </c>
-      <c r="I145" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B146">
-        <v>66</v>
-      </c>
-      <c r="D146" t="s">
-        <v>234</v>
-      </c>
-      <c r="E146" t="s">
-        <v>235</v>
-      </c>
-      <c r="F146" t="s">
-        <v>32</v>
-      </c>
-      <c r="G146" t="s">
-        <v>108</v>
-      </c>
-      <c r="H146" t="s">
-        <v>236</v>
-      </c>
-      <c r="I146" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B147">
-        <v>67</v>
-      </c>
-      <c r="D147" t="s">
-        <v>237</v>
-      </c>
-      <c r="E147" t="s">
-        <v>238</v>
-      </c>
-      <c r="F147" t="s">
-        <v>32</v>
-      </c>
-      <c r="G147" t="s">
-        <v>108</v>
-      </c>
-      <c r="H147" t="s">
-        <v>239</v>
-      </c>
-      <c r="I147" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B148">
-        <v>68</v>
-      </c>
-      <c r="D148" t="s">
-        <v>240</v>
-      </c>
-      <c r="E148" t="s">
-        <v>241</v>
-      </c>
-      <c r="F148" t="s">
-        <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>108</v>
-      </c>
-      <c r="H148" t="s">
-        <v>242</v>
-      </c>
-      <c r="I148" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B149">
-        <v>69</v>
-      </c>
-      <c r="D149" t="s">
-        <v>243</v>
-      </c>
-      <c r="E149" t="s">
-        <v>244</v>
-      </c>
-      <c r="F149" t="s">
-        <v>9</v>
-      </c>
-      <c r="G149" t="s">
-        <v>28</v>
-      </c>
-      <c r="H149" t="s">
-        <v>245</v>
-      </c>
-      <c r="I149" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I150" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B151">
-        <v>70</v>
-      </c>
-      <c r="D151" t="s">
-        <v>246</v>
-      </c>
-      <c r="E151" t="s">
-        <v>247</v>
-      </c>
-      <c r="F151" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
-      <c r="H151" t="s">
-        <v>248</v>
-      </c>
-      <c r="I151" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B152">
-        <v>71</v>
-      </c>
-      <c r="D152" t="s">
-        <v>249</v>
-      </c>
-      <c r="E152" t="s">
-        <v>250</v>
-      </c>
-      <c r="F152" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152" t="s">
-        <v>28</v>
-      </c>
-      <c r="H152" t="s">
-        <v>251</v>
-      </c>
-      <c r="I152" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B153">
-        <v>72</v>
-      </c>
-      <c r="D153" t="s">
-        <v>252</v>
-      </c>
-      <c r="E153" t="s">
-        <v>253</v>
-      </c>
-      <c r="F153" t="s">
-        <v>9</v>
-      </c>
       <c r="G153" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="H153" t="s">
-        <v>254</v>
-      </c>
-      <c r="I153" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3722,13 +3722,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5973FD41-B289-41A1-96C9-1FB75F7B4310}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
-    <sheetView topLeftCell="C1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5940,7 +5939,6 @@
     <sheetView zoomScale="76" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/1. Diccionario de variables.xlsx
+++ b/1. Diccionario de variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2824dc675c0c08c7/Documentos/GitHub/Taller-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B9EA20-D2ED-41F3-B079-0B89E2169148}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC521813-3B97-4CA6-9D4C-1F33820A9658}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -1624,26 +1624,26 @@
   <dimension ref="A3:H153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1690,12 +1690,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1787,32 +1787,32 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
@@ -2088,12 +2088,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>18</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>19</v>
       </c>
@@ -2139,37 +2139,37 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H33" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H35" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -2192,17 +2192,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>21</v>
       </c>
@@ -2225,22 +2225,22 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>22</v>
       </c>
@@ -2263,37 +2263,37 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H44" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H47" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H48" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>23</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>24</v>
       </c>
@@ -2339,32 +2339,32 @@
         <v>284</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H52" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H53" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H54" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H55" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>25</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>27</v>
       </c>
@@ -2433,47 +2433,47 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H60" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H62" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H63" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H64" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H65" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H66" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H67" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>28</v>
       </c>
@@ -2496,17 +2496,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H69" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H70" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>29</v>
       </c>
@@ -2529,17 +2529,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>30</v>
       </c>
@@ -2562,17 +2562,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>31</v>
       </c>
@@ -2595,17 +2595,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H78" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H79" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>32</v>
       </c>
@@ -2628,17 +2628,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H81" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>33</v>
       </c>
@@ -2661,17 +2661,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H84" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H85" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>34</v>
       </c>
@@ -2694,17 +2694,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H87" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H88" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>35</v>
       </c>
@@ -2727,17 +2727,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H90" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H91" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>36</v>
       </c>
@@ -2760,17 +2760,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H93" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H94" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>37</v>
       </c>
@@ -2793,17 +2793,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H97" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>38</v>
       </c>
@@ -2826,17 +2826,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H99" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H100" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>39</v>
       </c>
@@ -2859,12 +2859,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>40</v>
       </c>
@@ -2887,12 +2887,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H104" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>41</v>
       </c>
@@ -2915,12 +2915,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H106" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>42</v>
       </c>
@@ -2943,12 +2943,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H108" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>43</v>
       </c>
@@ -2971,12 +2971,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H110" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>44</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>45</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>46</v>
       </c>
@@ -3045,17 +3045,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H114" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H115" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>47</v>
       </c>
@@ -3078,12 +3078,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H117" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>48</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>49</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>50</v>
       </c>
@@ -3152,12 +3152,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H121" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>51</v>
       </c>
@@ -3180,12 +3180,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H123" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>52</v>
       </c>
@@ -3208,12 +3208,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H125" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>53</v>
       </c>
@@ -3236,12 +3236,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H127" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>54</v>
       </c>
@@ -3264,12 +3264,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H129" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>55</v>
       </c>
@@ -3292,12 +3292,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H131" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>56</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>57</v>
       </c>
@@ -3343,12 +3343,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H134" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>58</v>
       </c>
@@ -3371,12 +3371,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H136" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>59</v>
       </c>
@@ -3399,12 +3399,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H138" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>60</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>61</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>62</v>
       </c>
@@ -3473,12 +3473,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H142" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>63</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>64</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>65</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>66</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>67</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>68</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>69</v>
       </c>
@@ -3639,12 +3639,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H150" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>70</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>71</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>72</v>
       </c>
@@ -3729,20 +3729,20 @@
       <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="3"/>
-    <col min="5" max="5" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="11.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="111.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="111.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>280000000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>131125.57</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>303816.69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5940,7 +5940,7 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
